--- a/Requriements.xlsx
+++ b/Requriements.xlsx
@@ -5,112 +5,257 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Parent User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority 1-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a set of display controls that allow modifications of all user specified shape characteristics for selected shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape changes are not “live”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify each characteristic in shapes.txt specification is displayed and can be changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an OK button to accept changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select shape with mouse click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that OK makes all changes appear in rendering window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a CANCEL button to leave selected shape unchanged (not created)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that CANCEL leaves shape unchanged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Provide  a DELETE button to delete an existing shape that is selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select shape with mouse click
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+  <si>
+    <t>Parent User Story</t>
+  </si>
+  <si>
+    <t>Requirement Number</t>
+  </si>
+  <si>
+    <t>Priority 1-99</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Cumulative Time</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test Criteria</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>6000-1</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Provide a set of display controls that allow modifications of all user specified shape characteristics for selected shape</t>
+  </si>
+  <si>
+    <t>Shape changes are not “live”</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Verify each characteristic in shapes.txt specification is displayed and can be changed</t>
+  </si>
+  <si>
+    <t>6000-2</t>
+  </si>
+  <si>
+    <t>Provide an OK button to accept changes</t>
+  </si>
+  <si>
+    <t>select shape with mouse click</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Verify that OK makes all changes appear in rendering window</t>
+  </si>
+  <si>
+    <t>6000-3</t>
+  </si>
+  <si>
+    <t>Provide a CANCEL button to leave selected shape unchanged (not created)</t>
+  </si>
+  <si>
+    <t>Verify that CANCEL leaves shape unchanged</t>
+  </si>
+  <si>
+    <t>6000-4</t>
+  </si>
+  <si>
+    <t> Provide  a DELETE button to delete an existing shape that is selected</t>
+  </si>
+  <si>
+    <t>select shape with mouse click
 Deletion cannot be undone</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that DELETE removes object from rendering area</t>
+    <t>Verify that DELETE removes object from rendering area</t>
+  </si>
+  <si>
+    <t>4000-1</t>
+  </si>
+  <si>
+    <t>Provide a text file that will be used to create different objects</t>
+  </si>
+  <si>
+    <t>Kole</t>
+  </si>
+  <si>
+    <t>4100-1</t>
+  </si>
+  <si>
+    <t>Make a part of the file that allows object specification</t>
+  </si>
+  <si>
+    <t>4110-1</t>
+  </si>
+  <si>
+    <t>Make a part of the file that allows line modification</t>
+  </si>
+  <si>
+    <t>4120-1</t>
+  </si>
+  <si>
+    <t>Make a part of the file that allows shape modification</t>
+  </si>
+  <si>
+    <t>4130-1</t>
+  </si>
+  <si>
+    <t>Make a part of the file that allows text modification</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3000-1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Provide a 2D rendered object that corresponds to a unique ID number</t>
+  </si>
+  <si>
+    <t>Unique ID number along with other shape attributes will be read in from an external input file.  Use Qt 2D rendering library</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Verify that each shape is printed to the screen within the specified viewing area.  </t>
+  </si>
+  <si>
+    <t>3000-2</t>
+  </si>
+  <si>
+    <t>Any time the user modifies a shape, make sure that the rendering is updated and printed to the viewing area correctly</t>
+  </si>
+  <si>
+    <t>This ties in with the user options menu, update the shapes based on changes. Read and understand how to implement the Qt 2D rendering library.</t>
+  </si>
+  <si>
+    <t>Verify that any modifications to the shapes are updated and printed to the viewing area properly.</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>3100-1</t>
+  </si>
+  <si>
+    <t>Provide a viewing area for the user to view the shapes.</t>
+  </si>
+  <si>
+    <t>The origin (0,0) should be the top left corner of the viewing area.  Size of viewing area is 1000px by 500px. </t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Verify that the viewing area is the specified size and that the shapes will show up within the viewing area.</t>
+  </si>
+  <si>
+    <t>3100-2</t>
+  </si>
+  <si>
+    <t>When the user changes the position of the shape in the viewing area, make sure that the changes are updated so that the shape retains its scale se by either the input file or the user.</t>
+  </si>
+  <si>
+    <t>Account the shape modifications when the position of the shape is updated</t>
+  </si>
+  <si>
+    <t>Verify that when the user changes the position of the shape, the shape shows up correctly in the new position in the viewing area.</t>
+  </si>
+  <si>
+    <t>7000-1</t>
+  </si>
+  <si>
+    <t>Provide a detailed list of shapes being rendered that is sorted by ID#</t>
+  </si>
+  <si>
+    <t>Note: all shapes have unique ID#.  The list must show all attributes of the shape. Ensure that this list is generated both in a separate window for the user to see instantly and to an external file.</t>
+  </si>
+  <si>
+    <t>Verify that a detailed list of shapes is populated and sorted by ID#</t>
+  </si>
+  <si>
+    <t>8000-1</t>
+  </si>
+  <si>
+    <t>Provide a list of shapes being rendered that is sorted by area. Specifically exclude lines and text. </t>
+  </si>
+  <si>
+    <t>Do not include lines or texts. Similar to the other lists, open in separate window and also write to an external file. Also must show all attributes.</t>
+  </si>
+  <si>
+    <t>Verify that a detailed list of shapes excluding lines and text objects is printed out and sorted by area.</t>
+  </si>
+  <si>
+    <t>9000-1</t>
+  </si>
+  <si>
+    <t>Provide a list of shapes being rendered that is sorted by perimeter</t>
+  </si>
+  <si>
+    <t>Do not include lines or texts.Similar to the other lists, open in separate window and also write to an external file. Also must show all attributes.  </t>
+  </si>
+  <si>
+    <t>Verify that a detailed list of shapes excluding lines and text objects is printed out and sorted by perimeter.</t>
+  </si>
+  <si>
+    <t>11000-1</t>
+  </si>
+  <si>
+    <t>Provide a templated mechanism to store Shape objects</t>
+  </si>
+  <si>
+    <t>Partial re-implementation of STL vector</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Test storing Shapes using all methods in vector.h – class specification in assignment document: 2D Graphics Modeler Class Project.pdf</t>
   </si>
 </sst>
 </file>
@@ -118,14 +263,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,61 +297,88 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="8">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -215,24 +388,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A23" xSplit="0" ySplit="1"/>
+      <selection activeCell="D1" activeCellId="0" pane="topLeft" sqref="D1"/>
+      <selection activeCell="G30" activeCellId="0" pane="bottomLeft" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.4" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -264,7 +439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -294,7 +469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -307,7 +482,7 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -324,18 +499,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -351,24 +526,24 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -381,13 +556,426 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="7">
+      <c r="A7" s="3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="9">
+      <c r="A9" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="11">
+      <c r="A11" s="3" t="n">
+        <v>4110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="13">
+      <c r="A13" s="3" t="n">
+        <v>4120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="15">
+      <c r="A15" s="3" t="n">
+        <v>4130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.25" outlineLevel="0" r="21">
+      <c r="A21" s="6" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.25" outlineLevel="0" r="23">
+      <c r="A23" s="6" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="45.7" outlineLevel="0" r="25">
+      <c r="A25" s="6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="45.7" outlineLevel="0" r="27">
+      <c r="A27" s="6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="29">
+      <c r="A29" s="3" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
